--- a/excel/dosyalar/orders_by_country.xlsx
+++ b/excel/dosyalar/orders_by_country.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -591,455 +591,455 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Anguilla</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>30888.36</v>
+        <v>301821.75</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>37688.36</v>
+        <v>341369.22</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="F3" s="4" t="n">
-        <v>38505.48</v>
+        <v>456869.04</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>38995.36</v>
+        <v>515891.39</v>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6675.84</v>
+        <v>596395.65</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8175.84</v>
+        <v>723011.4</v>
       </c>
       <c r="M3" s="4" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="N3" s="4" t="n">
-        <v>13849.44</v>
+        <v>447528.23</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18099.44</v>
+        <v>498003.23</v>
       </c>
       <c r="Q3" s="4" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="R3" s="4" t="n">
-        <v>9677.360000000001</v>
+        <v>540169.1</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>11877.36</v>
+        <v>622728.1</v>
       </c>
       <c r="U3" s="4" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17320</v>
+        <v>417083.48</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19220</v>
+        <v>450670.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>48528</v>
+        <v>294111.46</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>61608</v>
+        <v>325691.46</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24262.3646</v>
+        <v>393929.73</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>31662.3646</v>
+        <v>416169.73</v>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="J4" s="4" t="n">
-        <v>26023.925</v>
+        <v>428845.15</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>25273.925</v>
+        <v>452531.92</v>
       </c>
       <c r="M4" s="4" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="N4" s="4" t="n">
-        <v>266263.2</v>
+        <v>348767.14</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>319013.08</v>
+        <v>400067.14</v>
       </c>
       <c r="Q4" s="4" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="R4" s="4" t="n">
-        <v>39417.35</v>
+        <v>285096.63</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>46067.35</v>
+        <v>306523.95</v>
       </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
-          <t>Anguilla</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="V4" s="4" t="n">
-        <v>43096.79</v>
+        <v>257254.73</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>43096.79</v>
+        <v>260252.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10454.75</v>
+        <v>203978.98</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14654.75</v>
+        <v>229353.98</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="F5" s="4" t="n">
-        <v>86140.2662</v>
+        <v>270568.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>95730.2662</v>
+        <v>277789.22</v>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1270.1</v>
+        <v>216593.36</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1270</v>
+        <v>223562.62</v>
       </c>
       <c r="M5" s="4" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="N5" s="4" t="n">
-        <v>10090.87</v>
+        <v>278551.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10490.87</v>
+        <v>370101.75</v>
       </c>
       <c r="Q5" s="4" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="R5" s="4" t="n">
-        <v>2662.35</v>
+        <v>256714.21</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>2762.35</v>
+        <v>286764.21</v>
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="V5" s="4" t="n">
-        <v>20309.71</v>
+        <v>226397.11</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23609.71</v>
+        <v>241967.65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>202268.28</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>202268.28</v>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>164753.85</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>182970.12</v>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>178485.69</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>237411.23</v>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
           <t>Australia</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>30526.125</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>35026.125</v>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Belize</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>38094.032908</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>44344.032908</v>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Belize</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>62632.4742</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>85132.4742</v>
-      </c>
-      <c r="M6" s="4" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
       <c r="N6" s="4" t="n">
-        <v>21564.96</v>
+        <v>266263.2</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>25564.96</v>
+        <v>319013.08</v>
       </c>
       <c r="Q6" s="4" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="R6" s="4" t="n">
-        <v>65954.5451</v>
+        <v>215545.63</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>69754.5451</v>
+        <v>215360.35</v>
       </c>
       <c r="U6" s="4" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="V6" s="4" t="n">
-        <v>17120.52</v>
+        <v>191730.15</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>17120.52</v>
+        <v>204480.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>48127.1273</v>
+        <v>161584.39</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>54327.1273</v>
+        <v>191584.39</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F7" s="4" t="n">
-        <v>794.1455999999999</v>
+        <v>103344.93</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2214.1456</v>
+        <v>103144.93</v>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="J7" s="4" t="n">
-        <v>188369.69</v>
+        <v>130244.25</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>189812.69</v>
+        <v>135402.75</v>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="N7" s="4" t="n">
-        <v>7750</v>
+        <v>223693.63</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>9350</v>
+        <v>237633.27</v>
       </c>
       <c r="Q7" s="4" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="R7" s="4" t="n">
-        <v>42169.9028</v>
+        <v>202332.61</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>46869.9028</v>
+        <v>204324.13</v>
       </c>
       <c r="U7" s="4" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11307.14</v>
+        <v>182944.17</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>16482.14</v>
+        <v>182944.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
+          <t>British Virgin Islands</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>149640.13</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>188020.13</v>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
           <t>Bahrain</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>4872.396</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>4922.396</v>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
       <c r="F8" s="4" t="n">
-        <v>17243.74</v>
+        <v>86140.27</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17243.74</v>
+        <v>95730.27</v>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="J8" s="4" t="n">
-        <v>24640.88594</v>
+        <v>104809.43</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>27260.88594</v>
+        <v>116609.43</v>
       </c>
       <c r="M8" s="4" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="N8" s="4" t="n">
-        <v>15678.62</v>
+        <v>161849.27</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>19028.62</v>
+        <v>175522.95</v>
       </c>
       <c r="Q8" s="4" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="R8" s="4" t="n">
-        <v>29303.2824</v>
+        <v>200070.28</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>40514.2824</v>
+        <v>239995.49</v>
       </c>
       <c r="U8" s="4" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="V8" s="4" t="n">
-        <v>61388.665</v>
+        <v>179946</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>63388.665</v>
+        <v>189588</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>161584.39308</v>
+        <v>111516.57</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>191584.39308</v>
+        <v>110816.57</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F9" s="4" t="n">
-        <v>27035.41</v>
+        <v>85242.62</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>28985.41</v>
+        <v>101443.95</v>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="J9" s="4" t="n">
-        <v>596395.6444</v>
+        <v>89307.95</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>723011.3944</v>
+        <v>103357.95</v>
       </c>
       <c r="M9" s="4" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1312.412264</v>
+        <v>154953.53</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2312.412264</v>
+        <v>179528.53</v>
       </c>
       <c r="Q9" s="4" t="inlineStr">
         <is>
@@ -1054,626 +1054,626 @@
       </c>
       <c r="U9" s="4" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="V9" s="4" t="n">
-        <v>14699.8164</v>
+        <v>128962.81</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>16649.8164</v>
+        <v>128377.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>British Virgin Islands</t>
+          <t>Turks and Caicos Islands</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>101112.13</v>
+        <v>110576.6</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>126412.13</v>
+        <v>133046.6</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="F10" s="4" t="n">
-        <v>85242.6188</v>
+        <v>83685.28</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>101443.9488</v>
+        <v>89480.28</v>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="J10" s="4" t="n">
-        <v>334.08</v>
+        <v>62632.47</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>4634.08</v>
+        <v>85132.47</v>
       </c>
       <c r="M10" s="4" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="N10" s="4" t="n">
-        <v>22784.27</v>
+        <v>143038.54</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>26234.27</v>
+        <v>148938.54</v>
       </c>
       <c r="Q10" s="4" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="R10" s="4" t="n">
-        <v>3020.19</v>
+        <v>69602.61</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>4670.190000000001</v>
+        <v>74002.61</v>
       </c>
       <c r="U10" s="4" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="V10" s="4" t="n">
-        <v>16714.8</v>
+        <v>127010.6</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>20464.8</v>
+        <v>132410.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>11535.51396</v>
+        <v>88078.5</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>16035.51396</v>
+        <v>97728.5</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="F11" s="4" t="n">
-        <v>143492.17</v>
+        <v>76860.97</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>160327.17</v>
+        <v>78399.95</v>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="J11" s="4" t="n">
-        <v>400</v>
+        <v>50692.48</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>950</v>
+        <v>50162.48</v>
       </c>
       <c r="M11" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="N11" s="4" t="n">
-        <v>15026.57</v>
+        <v>98637.21000000001</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>17476.57</v>
+        <v>107037.21</v>
       </c>
       <c r="Q11" s="4" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="R11" s="4" t="n">
-        <v>19671.5</v>
+        <v>65954.53999999999</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>19671.5</v>
+        <v>69754.53999999999</v>
       </c>
       <c r="U11" s="4" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="V11" s="4" t="n">
-        <v>9923.6</v>
+        <v>94675.31</v>
       </c>
       <c r="W11" s="4" t="n">
-        <v>11723.6</v>
+        <v>101620.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>15795.025</v>
+        <v>42699.96</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>15538.665</v>
+        <v>45099.96</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="F12" s="4" t="n">
-        <v>456869.045</v>
+        <v>55279.9</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>515891.395</v>
+        <v>63329.9</v>
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="J12" s="4" t="n">
-        <v>27970.95</v>
+        <v>41234.03</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>32140.95</v>
+        <v>45784.03</v>
       </c>
       <c r="M12" s="4" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="N12" s="4" t="n">
-        <v>447528.222429</v>
+        <v>94124.78999999999</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>498003.222429</v>
+        <v>130824.9</v>
       </c>
       <c r="Q12" s="4" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="R12" s="4" t="n">
-        <v>26449.16</v>
+        <v>63167.93</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>33084.16</v>
+        <v>63367.93</v>
       </c>
       <c r="U12" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="V12" s="4" t="n">
-        <v>28934.72</v>
+        <v>90979.11</v>
       </c>
       <c r="W12" s="4" t="n">
-        <v>29047.62</v>
+        <v>104379.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>17318.31</v>
+        <v>33253.04</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>17318.31</v>
+        <v>34853.04</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="F13" s="4" t="n">
-        <v>7425</v>
+        <v>41947.01</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>7875</v>
+        <v>41412.01</v>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J13" s="4" t="n">
-        <v>16866</v>
+        <v>30602.14</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>16866</v>
+        <v>50052.14</v>
       </c>
       <c r="M13" s="4" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="N13" s="4" t="n">
-        <v>5540</v>
+        <v>77529.34</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>7750</v>
+        <v>82629.34</v>
       </c>
       <c r="Q13" s="4" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="R13" s="4" t="n">
-        <v>5392.84</v>
+        <v>53741.8</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>8567.84</v>
+        <v>58616.24000000001</v>
       </c>
       <c r="U13" s="4" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="V13" s="4" t="n">
-        <v>17040</v>
+        <v>84500.37</v>
       </c>
       <c r="W13" s="4" t="n">
-        <v>18640</v>
+        <v>92319.37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>63291.67</v>
+        <v>32855.8</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>66741.67</v>
+        <v>32855.8</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="F14" s="4" t="n">
-        <v>14270.64912</v>
+        <v>38888.19</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>15651.91912</v>
+        <v>46558.19</v>
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J14" s="4" t="n">
-        <v>41234.03</v>
+        <v>27970.95</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>45784.03</v>
+        <v>32140.95</v>
       </c>
       <c r="M14" s="4" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="N14" s="4" t="n">
-        <v>53655.61</v>
+        <v>56695.22</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>65305.61</v>
+        <v>57245.22</v>
       </c>
       <c r="Q14" s="4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="R14" s="4" t="n">
-        <v>13504.24</v>
+        <v>43225.49</v>
       </c>
       <c r="S14" s="4" t="n">
-        <v>13504.24</v>
+        <v>42489.29</v>
       </c>
       <c r="U14" s="4" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="V14" s="4" t="n">
-        <v>16736.63</v>
+        <v>78207.57000000001</v>
       </c>
       <c r="W14" s="4" t="n">
-        <v>16411.63</v>
+        <v>105037.57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>301821.7421</v>
+        <v>31759.96</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>341369.2121</v>
+        <v>31759.96</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="F15" s="4" t="n">
-        <v>270568.097674</v>
+        <v>38505.48</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>277789.207674</v>
+        <v>38995.36</v>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="J15" s="4" t="n">
-        <v>14511.2</v>
+        <v>27589.23</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>14511.2</v>
+        <v>28442.19</v>
       </c>
       <c r="M15" s="4" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="N15" s="4" t="n">
-        <v>14179.29</v>
+        <v>53655.61</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>14179.29</v>
+        <v>65305.61</v>
       </c>
       <c r="Q15" s="4" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="R15" s="4" t="n">
-        <v>256714.2048</v>
+        <v>42169.86</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>286764.2048</v>
+        <v>46869.86</v>
       </c>
       <c r="U15" s="4" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="V15" s="4" t="n">
-        <v>24758.4</v>
+        <v>73468.47</v>
       </c>
       <c r="W15" s="4" t="n">
-        <v>25658.4</v>
+        <v>78418.47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Anguilla</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>30685.09</v>
+        <v>30888.36</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>36085.09</v>
+        <v>37688.36</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="F16" s="4" t="n">
-        <v>17440.5086</v>
+        <v>24262.36</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>18213.9086</v>
+        <v>31662.36</v>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="J16" s="4" t="n">
-        <v>240</v>
+        <v>26909.46</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>240</v>
+        <v>29988.64</v>
       </c>
       <c r="M16" s="4" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="N16" s="4" t="n">
-        <v>3329.92</v>
+        <v>34675.2</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>3429.92</v>
+        <v>38525.2</v>
       </c>
       <c r="Q16" s="4" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="R16" s="4" t="n">
-        <v>1740</v>
+        <v>39417.35</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>2640</v>
+        <v>46067.35</v>
       </c>
       <c r="U16" s="4" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="V16" s="4" t="n">
-        <v>100582.3925</v>
+        <v>70964.48</v>
       </c>
       <c r="W16" s="4" t="n">
-        <v>102930.3925</v>
+        <v>73764.48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>20537.5</v>
+        <v>30685.09</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>27437.5</v>
+        <v>36085.09</v>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="F17" s="4" t="n">
-        <v>16491.54</v>
+        <v>22300.61</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>18071.54</v>
+        <v>22081.53</v>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="J17" s="4" t="n">
-        <v>130244.250367</v>
+        <v>26216.37</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>135402.750367</v>
+        <v>26994.37</v>
       </c>
       <c r="M17" s="4" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="N17" s="4" t="n">
-        <v>98637.21120000001</v>
+        <v>29129.24</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>107037.2112</v>
+        <v>29129.24</v>
       </c>
       <c r="Q17" s="4" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="R17" s="4" t="n">
-        <v>12532.5</v>
+        <v>38333.56</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>14182.5</v>
+        <v>52744.56</v>
       </c>
       <c r="U17" s="4" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="V17" s="4" t="n">
-        <v>127010.6074</v>
+        <v>54840.24</v>
       </c>
       <c r="W17" s="4" t="n">
-        <v>132410.6074</v>
+        <v>64850.50999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>32855.794466</v>
+        <v>30526.13</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>32855.794466</v>
+        <v>35026.13</v>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
+          <t>Moldova</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>17440.51</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>18213.91</v>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>26023.93</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>25273.93</v>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="F18" s="4" t="n">
-        <v>22300.61</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>22081.53</v>
-      </c>
-      <c r="I18" s="4" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
-      </c>
-      <c r="J18" s="4" t="n">
-        <v>89307.944</v>
-      </c>
-      <c r="K18" s="4" t="n">
-        <v>103357.944</v>
-      </c>
-      <c r="M18" s="4" t="inlineStr">
-        <is>
-          <t>Libya</t>
-        </is>
-      </c>
       <c r="N18" s="4" t="n">
-        <v>77529.345</v>
+        <v>23543.89</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>82629.345</v>
+        <v>23543.89</v>
       </c>
       <c r="Q18" s="4" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="R18" s="4" t="n">
-        <v>8243.299999999999</v>
+        <v>26449.16</v>
       </c>
       <c r="S18" s="4" t="n">
-        <v>9943.299999999999</v>
+        <v>33084.16</v>
       </c>
       <c r="U18" s="4" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Netherlands Antilles</t>
         </is>
       </c>
       <c r="V18" s="4" t="n">
-        <v>43114.8</v>
+        <v>43096.79</v>
       </c>
       <c r="W18" s="4" t="n">
-        <v>44708.2</v>
+        <v>43096.79</v>
       </c>
     </row>
     <row r="19">
@@ -1690,207 +1690,207 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F19" s="4" t="n">
-        <v>103344.9312</v>
+        <v>17250.74</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>103144.9312</v>
+        <v>17250.74</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J19" s="4" t="n">
-        <v>104809.430984</v>
+        <v>24640.9</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>116609.430984</v>
+        <v>27260.9</v>
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="N19" s="4" t="n">
-        <v>223693.613524</v>
+        <v>21564.96</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>237633.253524</v>
+        <v>25564.96</v>
       </c>
       <c r="Q19" s="4" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="R19" s="4" t="n">
-        <v>7421.4</v>
+        <v>23936.1</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>7421.4</v>
+        <v>28561.1</v>
       </c>
       <c r="U19" s="4" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="V19" s="4" t="n">
-        <v>0</v>
+        <v>34985.14</v>
       </c>
       <c r="W19" s="4" t="n">
-        <v>680</v>
+        <v>33985.14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>202268.2764</v>
+        <v>20537.5</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>202268.2764</v>
+        <v>27437.5</v>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>16491.54</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>18071.54</v>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
           <t>Singapore</t>
         </is>
       </c>
-      <c r="F20" s="4" t="n">
-        <v>83685.28</v>
-      </c>
-      <c r="G20" s="4" t="n">
-        <v>89480.28</v>
-      </c>
-      <c r="I20" s="4" t="inlineStr">
+      <c r="J20" s="4" t="n">
+        <v>24361.16</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <v>27311.16</v>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
         <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="J20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
-      </c>
       <c r="N20" s="4" t="n">
-        <v>154953.536</v>
+        <v>20587.79</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>179528.536</v>
+        <v>20587.79</v>
       </c>
       <c r="Q20" s="4" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="R20" s="4" t="n">
-        <v>43225.49</v>
+        <v>22780.47</v>
       </c>
       <c r="S20" s="4" t="n">
-        <v>42489.29</v>
+        <v>23820.47</v>
       </c>
       <c r="U20" s="4" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="V20" s="4" t="n">
-        <v>115919.9512</v>
+        <v>32817</v>
       </c>
       <c r="W20" s="4" t="n">
-        <v>124217.5812</v>
+        <v>35265</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>3500</v>
+        <v>17318.31</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>3500</v>
+        <v>17318.31</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="F21" s="4" t="n">
-        <v>41947.0142</v>
+        <v>16025.56</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>41412.0142</v>
+        <v>16025.56</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="J21" s="4" t="n">
-        <v>27589.232</v>
+        <v>23057.4</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>28442.192</v>
+        <v>30707.4</v>
       </c>
       <c r="M21" s="4" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="N21" s="4" t="n">
-        <v>3301.4</v>
+        <v>15678.62</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>5101.4</v>
+        <v>19028.62</v>
       </c>
       <c r="Q21" s="4" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="R21" s="4" t="n">
-        <v>69602.61</v>
+        <v>22129.21</v>
       </c>
       <c r="S21" s="4" t="n">
-        <v>74002.61</v>
+        <v>22129.21</v>
       </c>
       <c r="U21" s="4" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="V21" s="4" t="n">
-        <v>8440.5398</v>
+        <v>31570.1</v>
       </c>
       <c r="W21" s="4" t="n">
-        <v>8940.5398</v>
+        <v>32840.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>80807.25999999999</v>
+        <v>15795.03</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>92657.25999999999</v>
+        <v>15538.67</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
@@ -1898,429 +1898,429 @@
         </is>
       </c>
       <c r="F22" s="4" t="n">
-        <v>35384.095412</v>
+        <v>10613.32</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>38633.635412</v>
+        <v>12860.7</v>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="J22" s="4" t="n">
-        <v>216593.362</v>
+        <v>16866</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>223562.622</v>
+        <v>16866</v>
       </c>
       <c r="M22" s="4" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="N22" s="4" t="n">
-        <v>161849.27</v>
+        <v>15143.63</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>175522.95</v>
+        <v>15843.63</v>
       </c>
       <c r="Q22" s="4" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="R22" s="4" t="n">
-        <v>53741.8323</v>
+        <v>19671.5</v>
       </c>
       <c r="S22" s="4" t="n">
-        <v>58616.2723</v>
+        <v>19671.5</v>
       </c>
       <c r="U22" s="4" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="V22" s="4" t="n">
-        <v>5235.04</v>
+        <v>29830.68</v>
       </c>
       <c r="W22" s="4" t="n">
-        <v>5435.04</v>
+        <v>37330.68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>88078.496</v>
+        <v>14542.75</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>97728.496</v>
+        <v>19331.64</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="F23" s="4" t="n">
-        <v>4888.24</v>
+        <v>7425</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>4888.24</v>
+        <v>7875</v>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>Saint Martin</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="J23" s="4" t="n">
-        <v>11481.48</v>
+        <v>14511.2</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>17781.48</v>
+        <v>14511.2</v>
       </c>
       <c r="M23" s="4" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="N23" s="4" t="n">
-        <v>20587.79</v>
+        <v>15026.57</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>20587.79</v>
+        <v>17476.57</v>
       </c>
       <c r="Q23" s="4" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="R23" s="4" t="n">
-        <v>202332.625</v>
+        <v>18144</v>
       </c>
       <c r="S23" s="4" t="n">
-        <v>204324.145</v>
+        <v>19044</v>
       </c>
       <c r="U23" s="4" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="V23" s="4" t="n">
-        <v>329286.9989</v>
+        <v>28934.72</v>
       </c>
       <c r="W23" s="4" t="n">
-        <v>351960.0889</v>
+        <v>29047.62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B24" s="4" t="n">
-        <v>31759.946</v>
+        <v>12406.29</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>31759.946</v>
+        <v>11859.89</v>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F24" s="4" t="n">
-        <v>366894.325</v>
+        <v>4888.24</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>387184.325</v>
+        <v>4888.24</v>
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="J24" s="4" t="n">
-        <v>24361.16</v>
+        <v>12002.52</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>27311.16</v>
+        <v>20502.52</v>
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="N24" s="4" t="n">
+        <v>14179.29</v>
+      </c>
+      <c r="O24" s="4" t="n">
+        <v>14179.29</v>
+      </c>
+      <c r="Q24" s="4" t="inlineStr">
+        <is>
+          <t>Aruba</t>
+        </is>
+      </c>
+      <c r="R24" s="4" t="n">
+        <v>17777.28</v>
+      </c>
+      <c r="S24" s="4" t="n">
+        <v>24177.28</v>
+      </c>
+      <c r="U24" s="4" t="inlineStr">
+        <is>
           <t>Qatar</t>
         </is>
       </c>
-      <c r="N24" s="4" t="n">
-        <v>34675.2</v>
-      </c>
-      <c r="O24" s="4" t="n">
-        <v>38525.2</v>
-      </c>
-      <c r="Q24" s="4" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
-      </c>
-      <c r="R24" s="4" t="n">
-        <v>18144</v>
-      </c>
-      <c r="S24" s="4" t="n">
-        <v>19044</v>
-      </c>
-      <c r="U24" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
       <c r="V24" s="4" t="n">
-        <v>11602.6194</v>
+        <v>26125.19</v>
       </c>
       <c r="W24" s="4" t="n">
-        <v>11602.6194</v>
+        <v>28355.39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B25" s="4" t="n">
-        <v>42699.96</v>
+        <v>11535.51</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>45099.96</v>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="n">
-        <v>55279.899</v>
-      </c>
-      <c r="G25" s="4" t="n">
-        <v>63329.899</v>
+        <v>16035.51</v>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>2032713.26</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>2200244.880000001</v>
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Netherlands Antilles</t>
         </is>
       </c>
       <c r="J25" s="4" t="n">
-        <v>50692.4905</v>
+        <v>11481.48</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>50162.4905</v>
+        <v>17781.48</v>
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="N25" s="4" t="n">
-        <v>23543.8908</v>
+        <v>13849.44</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>23543.8908</v>
+        <v>18099.44</v>
       </c>
       <c r="Q25" s="4" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="R25" s="4" t="n">
-        <v>23936.1</v>
+        <v>15009.8</v>
       </c>
       <c r="S25" s="4" t="n">
-        <v>28561.1</v>
+        <v>15109.8</v>
       </c>
       <c r="U25" s="4" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="V25" s="4" t="n">
-        <v>29830.68</v>
+        <v>21084.93</v>
       </c>
       <c r="W25" s="4" t="n">
-        <v>37330.68</v>
+        <v>23434.93</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
+          <t>Aruba</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>10454.75</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>14654.75</v>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="n">
+        <v>6675.84</v>
+      </c>
+      <c r="K26" s="4" t="n">
+        <v>8175.84</v>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
-        <v>12406.3095</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>11859.9095</v>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="n">
-        <v>75106.9692796</v>
-      </c>
-      <c r="G26" s="4" t="n">
-        <v>75643.78927960001</v>
-      </c>
-      <c r="I26" s="4" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="J26" s="4" t="n">
-        <v>4394</v>
-      </c>
-      <c r="K26" s="4" t="n">
-        <v>4394</v>
-      </c>
-      <c r="M26" s="4" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
       <c r="N26" s="4" t="n">
-        <v>143038.53586</v>
+        <v>12551.15</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>148938.53586</v>
+        <v>11731.35</v>
       </c>
       <c r="Q26" s="4" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="R26" s="4" t="n">
-        <v>250407.03</v>
+        <v>12532.5</v>
       </c>
       <c r="S26" s="4" t="n">
-        <v>268834.35</v>
-      </c>
-      <c r="U26" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="V26" s="5" t="n">
-        <v>1070374.4206</v>
-      </c>
-      <c r="W26" s="5" t="n">
-        <v>1141729.4406</v>
+        <v>14182.5</v>
+      </c>
+      <c r="U26" s="4" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="V26" s="4" t="n">
+        <v>17320</v>
+      </c>
+      <c r="W26" s="4" t="n">
+        <v>19220</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>5681.36</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>8450</v>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
-        <v>14542.737836</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>19331.627836</v>
-      </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="n">
-        <v>2032706.4325936</v>
-      </c>
-      <c r="G27" s="5" t="n">
-        <v>2200238.0525936</v>
-      </c>
-      <c r="I27" s="4" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
       <c r="J27" s="4" t="n">
-        <v>26909.4511285</v>
+        <v>4394</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>29988.6311285</v>
+        <v>4394</v>
       </c>
       <c r="M27" s="4" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="N27" s="4" t="n">
-        <v>12551.15</v>
+        <v>10406.74</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>11731.35</v>
+        <v>16378.74</v>
       </c>
       <c r="Q27" s="4" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="R27" s="4" t="n">
-        <v>493</v>
+        <v>11573.28</v>
       </c>
       <c r="S27" s="4" t="n">
-        <v>593</v>
+        <v>11573.28</v>
+      </c>
+      <c r="U27" s="4" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="V27" s="4" t="n">
+        <v>16736.63</v>
+      </c>
+      <c r="W27" s="4" t="n">
+        <v>16411.63</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B28" s="4" t="n">
-        <v>990</v>
+        <v>4872.4</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>990</v>
+        <v>4922.4</v>
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="J28" s="4" t="n">
-        <v>240475.46</v>
+        <v>1270.1</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>262719.23</v>
+        <v>1270</v>
       </c>
       <c r="M28" s="4" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="N28" s="4" t="n">
-        <v>29129.24</v>
+        <v>10090.87</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>29129.24</v>
+        <v>10490.87</v>
       </c>
       <c r="Q28" s="4" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="R28" s="4" t="n">
-        <v>63167.9425</v>
+        <v>10978.94</v>
       </c>
       <c r="S28" s="4" t="n">
-        <v>63367.9425</v>
+        <v>12978.94</v>
+      </c>
+      <c r="U28" s="4" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="V28" s="4" t="n">
+        <v>16670.93</v>
+      </c>
+      <c r="W28" s="4" t="n">
+        <v>17770.93</v>
       </c>
     </row>
     <row r="29">
@@ -2330,286 +2330,352 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>6281.31564065</v>
+        <v>3819.9</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>7364.90564065</v>
+        <v>4903.49</v>
       </c>
       <c r="I29" s="4" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="J29" s="4" t="n">
-        <v>26216.37</v>
+        <v>400</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>26994.37</v>
+        <v>950</v>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="N29" s="4" t="n">
-        <v>1500</v>
+        <v>8782.23</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>1500</v>
+        <v>8782.23</v>
       </c>
       <c r="Q29" s="4" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="R29" s="4" t="n">
-        <v>215545.6348</v>
+        <v>9943.559999999999</v>
       </c>
       <c r="S29" s="4" t="n">
-        <v>215360.3548</v>
+        <v>12693.56</v>
+      </c>
+      <c r="U29" s="4" t="inlineStr">
+        <is>
+          <t>Aruba</t>
+        </is>
+      </c>
+      <c r="V29" s="4" t="n">
+        <v>15428.7</v>
+      </c>
+      <c r="W29" s="4" t="n">
+        <v>21428.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Turks and Caicos Islands</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B30" s="4" t="n">
-        <v>112015.00186</v>
+        <v>3500</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>135385.00186</v>
+        <v>3500</v>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="J30" s="4" t="n">
-        <v>221090.3553854</v>
+        <v>334.08</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>301880.3253854</v>
+        <v>4634.08</v>
       </c>
       <c r="M30" s="4" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="N30" s="4" t="n">
-        <v>17371.4592065</v>
+        <v>7750</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>17602.1192065</v>
+        <v>9350</v>
       </c>
       <c r="Q30" s="4" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="R30" s="4" t="n">
-        <v>10978.94</v>
+        <v>9677.360000000001</v>
       </c>
       <c r="S30" s="4" t="n">
-        <v>12978.94</v>
+        <v>11877.36</v>
+      </c>
+      <c r="U30" s="4" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="V30" s="4" t="n">
+        <v>14699.8</v>
+      </c>
+      <c r="W30" s="4" t="n">
+        <v>16649.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B31" s="4" t="n">
-        <v>150012.521</v>
+        <v>2461.41</v>
       </c>
       <c r="C31" s="4" t="n">
-        <v>166292.521</v>
+        <v>2461.41</v>
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="J31" s="4" t="n">
-        <v>23057.4</v>
+        <v>240</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>30707.4</v>
+        <v>240</v>
       </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="N31" s="4" t="n">
-        <v>56695.22</v>
+        <v>5540</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>57245.22</v>
+        <v>7750</v>
       </c>
       <c r="Q31" s="4" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>India</t>
         </is>
       </c>
       <c r="R31" s="4" t="n">
-        <v>11573.28</v>
+        <v>8243.299999999999</v>
       </c>
       <c r="S31" s="4" t="n">
-        <v>11573.28</v>
+        <v>9943.299999999999</v>
+      </c>
+      <c r="U31" s="4" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="V31" s="4" t="n">
+        <v>13502.54</v>
+      </c>
+      <c r="W31" s="4" t="n">
+        <v>13502.54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B32" s="4" t="n">
-        <v>5681.36</v>
+        <v>990</v>
       </c>
       <c r="C32" s="4" t="n">
-        <v>8450</v>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+        <v>990</v>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="N32" s="4" t="n">
+        <v>3329.92</v>
+      </c>
+      <c r="O32" s="4" t="n">
+        <v>3429.92</v>
+      </c>
+      <c r="Q32" s="4" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="R32" s="4" t="n">
+        <v>7454.84</v>
+      </c>
+      <c r="S32" s="4" t="n">
+        <v>8804.84</v>
+      </c>
+      <c r="U32" s="4" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="V32" s="4" t="n">
+        <v>11602.61</v>
+      </c>
+      <c r="W32" s="4" t="n">
+        <v>11602.61</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J32" s="5" t="n">
-        <v>2204787.2059049</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>2534377.4959049</v>
-      </c>
-      <c r="M32" s="4" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="N32" s="4" t="n">
-        <v>325982.87</v>
-      </c>
-      <c r="O32" s="4" t="n">
-        <v>373832.87</v>
-      </c>
-      <c r="Q32" s="4" t="inlineStr">
+      <c r="B33" s="5" t="n">
+        <v>2008052.21</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>2251743.040000001</v>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J33" s="5" t="n">
+        <v>2204787.22</v>
+      </c>
+      <c r="K33" s="5" t="n">
+        <v>2540463.080000001</v>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="N33" s="4" t="n">
+        <v>3301.4</v>
+      </c>
+      <c r="O33" s="4" t="n">
+        <v>5101.4</v>
+      </c>
+      <c r="Q33" s="4" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="R33" s="4" t="n">
+        <v>7421.4</v>
+      </c>
+      <c r="S33" s="4" t="n">
+        <v>7421.4</v>
+      </c>
+      <c r="U33" s="4" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="V33" s="4" t="n">
+        <v>11307.14</v>
+      </c>
+      <c r="W33" s="4" t="n">
+        <v>16482.14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="M34" s="4" t="inlineStr">
         <is>
           <t>Suriname</t>
         </is>
       </c>
-      <c r="R32" s="4" t="n">
-        <v>15009.8</v>
-      </c>
-      <c r="S32" s="4" t="n">
-        <v>15109.8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="n">
-        <v>187666.477108</v>
-      </c>
-      <c r="C33" s="4" t="n">
-        <v>207541.477108</v>
-      </c>
-      <c r="M33" s="4" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="N33" s="4" t="n">
-        <v>15143.63</v>
-      </c>
-      <c r="O33" s="4" t="n">
-        <v>15843.63</v>
-      </c>
-      <c r="Q33" s="4" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="R33" s="4" t="n">
-        <v>7454.84</v>
-      </c>
-      <c r="S33" s="4" t="n">
-        <v>8804.84</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="n">
-        <v>111516.5728</v>
-      </c>
-      <c r="C34" s="4" t="n">
-        <v>110816.5728</v>
-      </c>
-      <c r="M34" s="4" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
       <c r="N34" s="4" t="n">
-        <v>364087.0563159</v>
+        <v>1500</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>483227.5463159</v>
+        <v>1500</v>
       </c>
       <c r="Q34" s="4" t="inlineStr">
         <is>
-          <t>U.S. Virgin Islands</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="R34" s="4" t="n">
-        <v>17777.28</v>
+        <v>5677.11</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>24177.28</v>
+        <v>8427.110000000001</v>
+      </c>
+      <c r="U34" s="4" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="V34" s="4" t="n">
+        <v>10815.2</v>
+      </c>
+      <c r="W34" s="4" t="n">
+        <v>10815.2</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="n">
-        <v>2008052.16105065</v>
-      </c>
-      <c r="C35" s="5" t="n">
-        <v>2251742.99105065</v>
-      </c>
       <c r="M35" s="4" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="N35" s="4" t="n">
-        <v>10406.74</v>
+        <v>1312.41</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>16378.74</v>
+        <v>2312.41</v>
       </c>
       <c r="Q35" s="4" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>France</t>
         </is>
       </c>
       <c r="R35" s="4" t="n">
-        <v>22780.455</v>
+        <v>5392.84</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>23820.455</v>
+        <v>8567.84</v>
+      </c>
+      <c r="U35" s="4" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="V35" s="4" t="n">
+        <v>9923.6</v>
+      </c>
+      <c r="W35" s="4" t="n">
+        <v>11723.6</v>
       </c>
     </row>
     <row r="36">
@@ -2619,21 +2685,32 @@
         </is>
       </c>
       <c r="N36" s="5" t="n">
-        <v>2673230.5425994</v>
+        <v>2673230.500000001</v>
       </c>
       <c r="O36" s="5" t="n">
-        <v>3061777.0925994</v>
+        <v>3070656.320000001</v>
       </c>
       <c r="Q36" s="4" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="R36" s="4" t="n">
-        <v>540169.1172</v>
+        <v>3020.19</v>
       </c>
       <c r="S36" s="4" t="n">
-        <v>622728.1172</v>
+        <v>4670.190000000001</v>
+      </c>
+      <c r="U36" s="4" t="inlineStr">
+        <is>
+          <t>Dominica</t>
+        </is>
+      </c>
+      <c r="V36" s="4" t="n">
+        <v>9396</v>
+      </c>
+      <c r="W36" s="4" t="n">
+        <v>10996</v>
       </c>
     </row>
     <row r="37">
@@ -2648,44 +2725,164 @@
       <c r="S37" s="4" t="n">
         <v>4897.139999999999</v>
       </c>
+      <c r="U37" s="4" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="V37" s="4" t="n">
+        <v>8440.530000000001</v>
+      </c>
+      <c r="W37" s="4" t="n">
+        <v>8940.530000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="Q38" s="4" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="R38" s="4" t="n">
-        <v>214777.727</v>
+        <v>2662.35</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>257738.497</v>
+        <v>2762.35</v>
+      </c>
+      <c r="U38" s="4" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="V38" s="4" t="n">
+        <v>4430</v>
+      </c>
+      <c r="W38" s="4" t="n">
+        <v>4580</v>
       </c>
     </row>
     <row r="39">
       <c r="Q39" s="4" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="R39" s="4" t="n">
-        <v>9943.559999999999</v>
+        <v>1740</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>12693.56</v>
+        <v>2640</v>
+      </c>
+      <c r="U39" s="4" t="inlineStr">
+        <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="V39" s="4" t="n">
+        <v>2016.54</v>
+      </c>
+      <c r="W39" s="4" t="n">
+        <v>2766.54</v>
       </c>
     </row>
     <row r="40">
-      <c r="Q40" s="1" t="inlineStr">
+      <c r="Q40" s="4" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="R40" s="4" t="n">
+        <v>493</v>
+      </c>
+      <c r="S40" s="4" t="n">
+        <v>593</v>
+      </c>
+      <c r="U40" s="4" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="V40" s="4" t="n">
+        <v>1620</v>
+      </c>
+      <c r="W40" s="4" t="n">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="Q41" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="R40" s="5" t="n">
-        <v>2479913.5189</v>
-      </c>
-      <c r="S40" s="5" t="n">
-        <v>2731241.0889</v>
+      <c r="R41" s="5" t="n">
+        <v>2523227.919999999</v>
+      </c>
+      <c r="S41" s="5" t="n">
+        <v>2780469.93</v>
+      </c>
+      <c r="U41" s="4" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="V41" s="4" t="n">
+        <v>1582.94</v>
+      </c>
+      <c r="W41" s="4" t="n">
+        <v>1781.24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="U42" s="4" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="V42" s="4" t="n">
+        <v>1339.9</v>
+      </c>
+      <c r="W42" s="4" t="n">
+        <v>1439.9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="U43" s="4" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="V43" s="4" t="n">
+        <v>1062.99</v>
+      </c>
+      <c r="W43" s="4" t="n">
+        <v>1162.99</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="U44" s="4" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="V44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="4" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="V45" s="5" t="n">
+        <v>2675305.200000002</v>
+      </c>
+      <c r="W45" s="5" t="n">
+        <v>2865011.090000001</v>
       </c>
     </row>
   </sheetData>
